--- a/SQL/正規化.xlsx
+++ b/SQL/正規化.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA5FAB7-F782-4DCF-B7E8-071B2AA5361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65E3751-D8C6-449E-A391-F3089B6842DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="15600" xr2:uid="{276F45D1-2C47-44A5-9388-3225F8FBA6E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{276F45D1-2C47-44A5-9388-3225F8FBA6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EE6E78-4337-474A-91F7-9442415DADA8}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1738,7 +1738,7 @@
     <col min="4" max="4" width="39.375" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="21.75" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="18.625" customWidth="1"/>
